--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT\20192 SOICT\Đồ án tốt nghiệp\thesis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106F7C3B-D073-495C-8DEF-0A540542A730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -72,99 +61,260 @@
     <t>Lời cam đoan</t>
   </si>
   <si>
-    <t>Tổng quan tổng hợp tiếng nói</t>
-  </si>
-  <si>
-    <t>Giới thiệu về tổng hợp tiếng nói</t>
-  </si>
-  <si>
-    <t>Các phương pháp tổng hợp tiếng nói</t>
-  </si>
-  <si>
-    <t>Tình hình phát triển và các vấn đề với tổng hợp tiếng nói tiếng Việt</t>
-  </si>
-  <si>
-    <t>Tổng quan chuyển đổi giọng nói</t>
-  </si>
-  <si>
-    <t>Tình hình phát triển và các vấn đề với chuyển đổi giọng nói</t>
-  </si>
-  <si>
-    <t>Các phương pháp chuyển đổi giọng nói</t>
-  </si>
-  <si>
-    <t>Xây dựng mô hình chuyển đổi giọng nói tiếng Việt với công nghệ học sâu</t>
-  </si>
-  <si>
-    <t>Kiến trúc mô hình</t>
+    <t>1. Tổng quan về tổng hợp tiếng nói và vấn đề đặt ra với đồ án</t>
+  </si>
+  <si>
+    <t>1.1. Giới thiệu về tổng hợp tiếng nói</t>
+  </si>
+  <si>
+    <t>1.1.1. Định nghĩa và quá trình phát triển tổng hợp tiếng nói</t>
+  </si>
+  <si>
+    <t>1.1.2. Ứng dụng của tổng hợp tiếng nói</t>
+  </si>
+  <si>
+    <t>1.1.3. Thành phần của tổng hợp tiếng nói</t>
+  </si>
+  <si>
+    <t>1.2. Các phương pháp tổng hợp tiếng nói</t>
+  </si>
+  <si>
+    <t>1.3. Tình hình phát triển tổng hợp tiếng nói tiếng Việt</t>
   </si>
   <si>
     <t>19/06/20</t>
   </si>
   <si>
-    <t>Xây dựng các mô đun</t>
-  </si>
-  <si>
-    <t>Xây dựng cơ sở dữ liệu</t>
+    <t>1.4. Giới thiệu về vấn đề chuyển đổi giọng nói</t>
+  </si>
+  <si>
+    <t>1.5. Bài toán chuyển đổi tiếng nói tiếng Việt</t>
   </si>
   <si>
     <t>13/06/20</t>
   </si>
   <si>
-    <t>Xử lý dữ liệu huấn luyện</t>
-  </si>
-  <si>
-    <t>15/06/20</t>
-  </si>
-  <si>
-    <t>Huấn luyện mô hình</t>
-  </si>
-  <si>
-    <t>17/06/20</t>
-  </si>
-  <si>
-    <t>Kỹ thuật sử dụng</t>
-  </si>
-  <si>
-    <t>Đánh giá kết quả</t>
+    <t>2. Cơ sở lý thuyết</t>
+  </si>
+  <si>
+    <t>2.1. Tổng quan về học sâu</t>
+  </si>
+  <si>
+    <t>2.2.1. Giới thiệu về học sâu</t>
   </si>
   <si>
     <t>23/06/20</t>
   </si>
   <si>
-    <t>Kết luận</t>
-  </si>
-  <si>
-    <t>Tổng kết</t>
+    <t>2.2.2. Tổng quan về mạng nơ ron</t>
   </si>
   <si>
     <t>21/06/20</t>
   </si>
   <si>
-    <t>Phương hướng phát triển và cải thiện hệ thống</t>
-  </si>
-  <si>
-    <t>Tài liệu tham khảo</t>
-  </si>
-  <si>
-    <t>Phụ lục</t>
+    <t>2.2. Tổng hợp tiếng nói dựa trên phương pháp học sâu</t>
+  </si>
+  <si>
+    <t>2.3. Trích chọn đặc trưng ngôn ngữ</t>
+  </si>
+  <si>
+    <t>2.4. Mô hình âm học dựa trên mạng nơ ron học sâu</t>
+  </si>
+  <si>
+    <t>2.5. Vocoder</t>
+  </si>
+  <si>
+    <t>3. Phương pháp đề xuất chuyển đổi giọng nói tiếng Việt</t>
+  </si>
+  <si>
+    <t>3.1. Mô hình cho quá trình tổng hợp tiếng nói</t>
+  </si>
+  <si>
+    <t>3.2. Transfer learning</t>
+  </si>
+  <si>
+    <t>3.3. Sử dụng vec tơ định danh</t>
+  </si>
+  <si>
+    <t>4. Thử nghiệm và đánh giá kết quả</t>
+  </si>
+  <si>
+    <t>5. Kết luận và phương hướng phát triền đồ án</t>
+  </si>
+  <si>
+    <t>6. Tài liệu tham khảo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,18 +329,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF685"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3715A"/>
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF685"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,103 +534,389 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFADD58A"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFF3715A"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFF685"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00ADD58A"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00F3715A"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFF685"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -309,9 +931,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -324,7 +943,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FCFCFC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -359,7 +978,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -392,26 +1011,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -444,23 +1046,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,282 +1187,288 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="4" customWidth="1"/>
-    <col min="7" max="1025" width="11.5703125" style="4"/>
+    <col min="1" max="1" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.4285714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="11.5714285714286" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="7" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="7" t="s">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="8" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="25.5" spans="2:6">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>43836</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>43957</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" ht="25.5" spans="3:6">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>43896</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>43957</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6">
+        <v>44018</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44171</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9">
-        <v>44018</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44171</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6">
+        <v>44080</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="25.5" spans="3:6">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9">
-        <v>44080</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="6">
+        <v>44141</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="6">
         <v>44141</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9">
-        <v>44141</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" ht="25.5" spans="3:6">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" ht="25.5" spans="3:6">
+      <c r="C21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" ht="25.5" spans="3:6">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="s">
+    </row>
+    <row r="24" ht="25.5" spans="2:3">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="3"/>
+    </row>
+    <row r="28" ht="25.5" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F2:F24"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F2:F22"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
